--- a/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统科学技术普及专题——青少年科技教育.xlsx
+++ b/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统科学技术普及专题——青少年科技教育.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,394 +638,196 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>3005</v>
+        <v>2539</v>
       </c>
       <c r="D2" t="n">
-        <v>3467</v>
+        <v>3734</v>
       </c>
       <c r="E2" t="n">
-        <v>10347</v>
+        <v>9788</v>
       </c>
       <c r="F2" t="n">
-        <v>12044</v>
+        <v>14225</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>1291</v>
+        <v>1997</v>
       </c>
       <c r="I2" t="n">
-        <v>20564</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.36</v>
-      </c>
+        <v>21857</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L2" t="n">
-        <v>106</v>
+        <v>331</v>
       </c>
       <c r="M2" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>5.48</v>
       </c>
       <c r="S2" t="n">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="T2" t="n">
-        <v>293</v>
+        <v>557</v>
       </c>
       <c r="U2" t="n">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="AB2" t="n">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="AC2" t="n">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AI2" t="n">
-        <v>2610</v>
+        <v>2232</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="AK2" t="n">
-        <v>9740</v>
+        <v>9221</v>
       </c>
       <c r="AL2" t="n">
-        <v>12044</v>
+        <v>14225</v>
       </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="n">
-        <v>1291</v>
+        <v>1997</v>
       </c>
       <c r="AO2" t="n">
-        <v>20564</v>
+        <v>21857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>2754</v>
+        <v>2792</v>
       </c>
       <c r="D3" t="n">
-        <v>3129</v>
+        <v>4119</v>
       </c>
       <c r="E3" t="n">
-        <v>11120</v>
+        <v>11071</v>
       </c>
       <c r="F3" t="n">
-        <v>13569</v>
+        <v>15928</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1584</v>
+        <v>1508</v>
       </c>
       <c r="I3" t="n">
-        <v>21332</v>
+        <v>23317</v>
       </c>
       <c r="J3" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="K3" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="L3" t="n">
-        <v>164.02</v>
+        <v>491</v>
       </c>
       <c r="M3" t="n">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="T3" t="n">
-        <v>363</v>
+        <v>834</v>
       </c>
       <c r="U3" t="n">
-        <v>636</v>
+        <v>908</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AB3" t="n">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="AC3" t="n">
-        <v>550</v>
+        <v>791</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>73.8</v>
       </c>
       <c r="AI3" t="n">
-        <v>2401</v>
+        <v>2476</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2766</v>
+        <v>3285</v>
       </c>
       <c r="AK3" t="n">
-        <v>10484</v>
+        <v>10163</v>
       </c>
       <c r="AL3" t="n">
-        <v>13569</v>
+        <v>15928</v>
       </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="n">
-        <v>1584</v>
+        <v>1508</v>
       </c>
       <c r="AO3" t="n">
-        <v>21332</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>63</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2539</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3734</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9788</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14225</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>1997</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21857</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>36</v>
-      </c>
-      <c r="L4" t="n">
-        <v>331</v>
-      </c>
-      <c r="M4" t="n">
-        <v>83</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>307</v>
-      </c>
-      <c r="T4" t="n">
-        <v>557</v>
-      </c>
-      <c r="U4" t="n">
-        <v>567</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>271</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>226</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>484</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
-        <v>58</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2232</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3177</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9221</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>14225</v>
-      </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
-        <v>1997</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21857</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>82</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2792</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4119</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11071</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15928</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>1508</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23317</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39</v>
-      </c>
-      <c r="L5" t="n">
-        <v>491</v>
-      </c>
-      <c r="M5" t="n">
-        <v>117</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>316</v>
-      </c>
-      <c r="T5" t="n">
-        <v>834</v>
-      </c>
-      <c r="U5" t="n">
-        <v>908</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>277</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>343</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>791</v>
-      </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2476</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>3285</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>10163</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15928</v>
-      </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
-        <v>1508</v>
-      </c>
-      <c r="AO5" t="n">
         <v>23317</v>
       </c>
     </row>
